--- a/Resultados/Resultado_final_4.xlsx
+++ b/Resultados/Resultado_final_4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="52" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="208" uniqueCount="6">
   <si>
     <t>Número_de_nodo</t>
   </si>
@@ -82,10 +82,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="true"/>
-    <col min="2" max="2" width="24.5546875" customWidth="true"/>
-    <col min="3" max="3" width="6.5546875" customWidth="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true"/>
+    <col min="1" max="1" width="17.28515625" customWidth="true"/>
+    <col min="2" max="2" width="26.5703125" customWidth="true"/>
+    <col min="3" max="3" width="7" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -107,7 +107,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>51.724224923559426</v>
+        <v>100</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
@@ -121,7 +121,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>41.288090193767353</v>
+        <v>12.088624510104278</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
@@ -135,10 +135,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>71.241184751522283</v>
+        <v>11.268694759227749</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0">
         <v>4</v>
@@ -149,10 +149,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>51.093407149441347</v>
+        <v>9.3818890119395864</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="0">
         <v>4</v>
@@ -163,10 +163,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="0">
-        <v>52.525574688026353</v>
+        <v>17.793820926030921</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0">
         <v>4</v>
@@ -177,7 +177,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0">
-        <v>46.480981198046848</v>
+        <v>26.592715324645908</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>4</v>
@@ -191,10 +191,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="0">
-        <v>69.995562575089394</v>
+        <v>0.37925317083038312</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0">
         <v>4</v>
@@ -205,10 +205,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="0">
-        <v>74.235802535997664</v>
+        <v>0.14808409960420044</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="0">
         <v>4</v>
@@ -219,7 +219,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="0">
-        <v>42.443944571528114</v>
+        <v>15.179780332609688</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>4</v>
@@ -233,7 +233,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="0">
-        <v>31.814697984941731</v>
+        <v>2.2432627533983962</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>4</v>
@@ -247,10 +247,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="0">
-        <v>75.282292326687411</v>
+        <v>-0.17901068593734412</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="0">
         <v>4</v>
@@ -261,7 +261,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="0">
-        <v>37.604821465011604</v>
+        <v>0.9121858973418886</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>4</v>
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="0">
-        <v>33.457003572035163</v>
+        <v>5.8184736902317731</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>4</v>
@@ -289,7 +289,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="0">
-        <v>29.857551458319776</v>
+        <v>4.7112620000206</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>4</v>
@@ -303,10 +303,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="0">
-        <v>54.328808876974158</v>
+        <v>-0.64330525013067863</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="0">
         <v>4</v>
@@ -317,10 +317,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="0">
-        <v>57.436583950850839</v>
+        <v>-0.74680795241953113</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="0">
         <v>4</v>
@@ -331,7 +331,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="0">
-        <v>15.072419607285262</v>
+        <v>0.058941061639476551</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>4</v>
@@ -345,7 +345,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="0">
-        <v>17.744151128276947</v>
+        <v>2.5423890421981676</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>4</v>
@@ -359,7 +359,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="0">
-        <v>12.030042452579508</v>
+        <v>-0.45465544445393891</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>4</v>
@@ -373,7 +373,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="0">
-        <v>40.946673821262763</v>
+        <v>7.6836378170397417</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>4</v>
@@ -387,7 +387,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="0">
-        <v>4.2743741207822694</v>
+        <v>0.71104831427069304</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>4</v>
@@ -401,7 +401,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="0">
-        <v>6.6266341104683715</v>
+        <v>0.74490299256374493</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>4</v>
@@ -415,7 +415,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="0">
-        <v>18.019256766708374</v>
+        <v>-0.87444192323813763</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>4</v>
@@ -429,7 +429,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="0">
-        <v>17.862225736603186</v>
+        <v>-1.0344287797209335</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>4</v>
@@ -443,7 +443,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="0">
-        <v>18.385143591719235</v>
+        <v>-0.17885319771727706</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>4</v>
@@ -457,7 +457,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0">
-        <v>12.159459491300902</v>
+        <v>-0.69076721493387172</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>4</v>
@@ -471,7 +471,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="0">
-        <v>1.9171061530869393</v>
+        <v>-0.79526172138116735</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>4</v>
@@ -485,7 +485,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="0">
-        <v>15.548590706749998</v>
+        <v>-0.70811576113537233</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>4</v>
@@ -499,7 +499,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="0">
-        <v>21.424970633437511</v>
+        <v>-0.58686331172161965</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>4</v>
@@ -513,7 +513,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="0">
-        <v>21.338186099115294</v>
+        <v>-0.54109203123744021</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>4</v>
@@ -527,7 +527,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="0">
-        <v>18.790780445024168</v>
+        <v>-0.75935389047201407</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>4</v>
@@ -541,7 +541,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="0">
-        <v>19.242021721759826</v>
+        <v>-0.83784890384622324</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>4</v>
@@ -555,10 +555,10 @@
         <v>37</v>
       </c>
       <c r="B34" s="0">
-        <v>100</v>
+        <v>-0.24402115105375496</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="0">
         <v>4</v>
@@ -569,10 +569,10 @@
         <v>38</v>
       </c>
       <c r="B35" s="0">
-        <v>62.241919791287891</v>
+        <v>-0.70217122902327378</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="0">
         <v>4</v>
@@ -583,7 +583,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="0">
-        <v>17.778594923184404</v>
+        <v>-0.42947397370530233</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>4</v>
@@ -597,7 +597,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="0">
-        <v>20.341083187118507</v>
+        <v>-0.66857149709903041</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>4</v>
@@ -610,9 +610,7 @@
       <c r="A38" s="0">
         <v>41</v>
       </c>
-      <c r="B38" s="0">
-        <v>33.384916220103662</v>
-      </c>
+      <c r="B38" s="0"/>
       <c r="C38" s="0" t="s">
         <v>4</v>
       </c>
@@ -624,9 +622,7 @@
       <c r="A39" s="0">
         <v>42</v>
       </c>
-      <c r="B39" s="0">
-        <v>40.420639286903842</v>
-      </c>
+      <c r="B39" s="0"/>
       <c r="C39" s="0" t="s">
         <v>4</v>
       </c>
@@ -638,9 +634,7 @@
       <c r="A40" s="0">
         <v>43</v>
       </c>
-      <c r="B40" s="0">
-        <v>31.472927458363959</v>
-      </c>
+      <c r="B40" s="0"/>
       <c r="C40" s="0" t="s">
         <v>4</v>
       </c>
@@ -652,9 +646,7 @@
       <c r="A41" s="0">
         <v>44</v>
       </c>
-      <c r="B41" s="0">
-        <v>23.612999585175469</v>
-      </c>
+      <c r="B41" s="0"/>
       <c r="C41" s="0" t="s">
         <v>4</v>
       </c>
@@ -666,11 +658,9 @@
       <c r="A42" s="0">
         <v>45</v>
       </c>
-      <c r="B42" s="0">
-        <v>69.081250436927533</v>
-      </c>
+      <c r="B42" s="0"/>
       <c r="C42" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" s="0">
         <v>4</v>
@@ -680,11 +670,9 @@
       <c r="A43" s="0">
         <v>46</v>
       </c>
-      <c r="B43" s="0">
-        <v>72.240320814670952</v>
-      </c>
+      <c r="B43" s="0"/>
       <c r="C43" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" s="0">
         <v>4</v>
@@ -694,9 +682,7 @@
       <c r="A44" s="0">
         <v>47</v>
       </c>
-      <c r="B44" s="0">
-        <v>27.175289517150887</v>
-      </c>
+      <c r="B44" s="0"/>
       <c r="C44" s="0" t="s">
         <v>4</v>
       </c>
@@ -708,9 +694,7 @@
       <c r="A45" s="0">
         <v>48</v>
       </c>
-      <c r="B45" s="0">
-        <v>18.512364472878684</v>
-      </c>
+      <c r="B45" s="0"/>
       <c r="C45" s="0" t="s">
         <v>4</v>
       </c>
@@ -722,11 +706,9 @@
       <c r="A46" s="0">
         <v>49</v>
       </c>
-      <c r="B46" s="0">
-        <v>54.070945965192784</v>
-      </c>
+      <c r="B46" s="0"/>
       <c r="C46" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" s="0">
         <v>4</v>
@@ -736,11 +718,9 @@
       <c r="A47" s="0">
         <v>50</v>
       </c>
-      <c r="B47" s="0">
-        <v>55.703456230738048</v>
-      </c>
+      <c r="B47" s="0"/>
       <c r="C47" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" s="0">
         <v>4</v>
@@ -750,9 +730,7 @@
       <c r="A48" s="0">
         <v>51</v>
       </c>
-      <c r="B48" s="0">
-        <v>24.743589383634838</v>
-      </c>
+      <c r="B48" s="0"/>
       <c r="C48" s="0" t="s">
         <v>4</v>
       </c>
@@ -764,9 +742,7 @@
       <c r="A49" s="0">
         <v>52</v>
       </c>
-      <c r="B49" s="0">
-        <v>20.564709025192265</v>
-      </c>
+      <c r="B49" s="0"/>
       <c r="C49" s="0" t="s">
         <v>4</v>
       </c>
